--- a/data/access/tournaments.xlsx
+++ b/data/access/tournaments.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C50"/>
+  <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,11 @@
           <t>DateTournament</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Observacions</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -461,7 +466,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2019-01-12 00:00:00</t>
+          <t>12/01/19</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>59</t>
         </is>
       </c>
     </row>
@@ -476,7 +486,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2019-02-23 00:00:00</t>
+          <t>23/02/19</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>49</t>
         </is>
       </c>
     </row>
@@ -491,7 +506,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2019-03-23 00:00:00</t>
+          <t>23/03/19</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>61</t>
         </is>
       </c>
     </row>
@@ -506,7 +526,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2019-04-20 00:00:00</t>
+          <t>20/04/19</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>47</t>
         </is>
       </c>
     </row>
@@ -521,7 +546,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2019-05-18 00:00:00</t>
+          <t>18/05/19</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>50</t>
         </is>
       </c>
     </row>
@@ -536,7 +566,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2019-06-22 00:00:00</t>
+          <t>22/06/19</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>41</t>
         </is>
       </c>
     </row>
@@ -551,7 +586,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2019-07-13 00:00:00</t>
+          <t>13/07/19</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>30</t>
         </is>
       </c>
     </row>
@@ -566,7 +606,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2019-08-24 00:00:00</t>
+          <t>24/08/19</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>60</t>
         </is>
       </c>
     </row>
@@ -581,7 +626,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2019-09-21 00:00:00</t>
+          <t>21/09/19</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>44</t>
         </is>
       </c>
     </row>
@@ -596,7 +646,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2019-10-12 00:00:00</t>
+          <t>12/10/19</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>43</t>
         </is>
       </c>
     </row>
@@ -611,7 +666,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2019-11-09 00:00:00</t>
+          <t>09/11/19</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>46</t>
         </is>
       </c>
     </row>
@@ -626,7 +686,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2019-12-14 00:00:00</t>
+          <t>14/12/19</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>32</t>
         </is>
       </c>
     </row>
@@ -641,7 +706,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2020-01-11 00:00:00</t>
+          <t>11/01/20</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>52</t>
         </is>
       </c>
     </row>
@@ -656,7 +726,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2020-02-29 00:00:00</t>
+          <t>29/02/20</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>46</t>
         </is>
       </c>
     </row>
@@ -671,7 +746,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2022-01-15 00:00:00</t>
+          <t>15/01/22</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>55</t>
         </is>
       </c>
     </row>
@@ -686,7 +766,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2022-02-26 00:00:00</t>
+          <t>26/02/22</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>64</t>
         </is>
       </c>
     </row>
@@ -701,7 +786,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2022-03-12 00:00:00</t>
+          <t>12/03/22</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>54</t>
         </is>
       </c>
     </row>
@@ -716,7 +806,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2022-04-09 00:00:00</t>
+          <t>09/04/22</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>66</t>
         </is>
       </c>
     </row>
@@ -731,7 +826,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2022-09-18 00:00:00</t>
+          <t>18/09/22</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>24</t>
         </is>
       </c>
     </row>
@@ -746,7 +846,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2022-10-23 00:00:00</t>
+          <t>23/10/22</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>40</t>
         </is>
       </c>
     </row>
@@ -761,7 +866,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2022-11-19 00:00:00</t>
+          <t>19/11/22</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>57</t>
         </is>
       </c>
     </row>
@@ -776,7 +886,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2023-01-07 00:00:00</t>
+          <t>07/01/23</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>48</t>
         </is>
       </c>
     </row>
@@ -791,7 +906,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2023-02-11 00:00:00</t>
+          <t>11/02/23</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>50</t>
         </is>
       </c>
     </row>
@@ -806,7 +926,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2023-03-11 00:00:00</t>
+          <t>11/03/23</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>38</t>
         </is>
       </c>
     </row>
@@ -821,7 +946,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2023-04-22 00:00:00</t>
+          <t>22/04/23</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>36</t>
         </is>
       </c>
     </row>
@@ -836,7 +966,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2023-05-13 00:00:00</t>
+          <t>13/05/23</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>40</t>
         </is>
       </c>
     </row>
@@ -851,7 +986,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2023-09-09 00:00:00</t>
+          <t>09/09/23</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>43</t>
         </is>
       </c>
     </row>
@@ -866,7 +1006,12 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2023-10-07 00:00:00</t>
+          <t>07/10/23</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>29</t>
         </is>
       </c>
     </row>
@@ -881,7 +1026,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>2023-10-14 00:00:00</t>
+          <t>14/10/23</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>33</t>
         </is>
       </c>
     </row>
@@ -896,7 +1046,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2023-11-04 00:00:00</t>
+          <t>04/11/23</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>41</t>
         </is>
       </c>
     </row>
@@ -911,7 +1066,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>2023-11-25 00:00:00</t>
+          <t>25/11/23</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>23</t>
         </is>
       </c>
     </row>
@@ -926,7 +1086,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>2023-12-16 00:00:00</t>
+          <t>16/12/23</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>29</t>
         </is>
       </c>
     </row>
@@ -941,7 +1106,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>2024-01-15 00:00:00</t>
+          <t>15/01/24</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>48</t>
         </is>
       </c>
     </row>
@@ -956,7 +1126,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>2024-01-20 00:00:00</t>
+          <t>20/01/24</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>26</t>
         </is>
       </c>
     </row>
@@ -971,7 +1146,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>2024-02-10 00:00:00</t>
+          <t>10/02/24</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>46</t>
         </is>
       </c>
     </row>
@@ -986,7 +1166,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>2024-03-09 00:00:00</t>
+          <t>09/03/24</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>46</t>
         </is>
       </c>
     </row>
@@ -1001,7 +1186,12 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>2024-04-20 00:00:00</t>
+          <t>20/04/24</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>44</t>
         </is>
       </c>
     </row>
@@ -1016,7 +1206,12 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>2024-05-11 00:00:00</t>
+          <t>11/05/24</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>42</t>
         </is>
       </c>
     </row>
@@ -1031,7 +1226,12 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>2024-06-08 00:00:00</t>
+          <t>08/06/24</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>40</t>
         </is>
       </c>
     </row>
@@ -1046,7 +1246,12 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>2024-07-06 00:00:00</t>
+          <t>06/07/24</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>41</t>
         </is>
       </c>
     </row>
@@ -1061,7 +1266,12 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>2024-08-03 00:00:00</t>
+          <t>03/08/24</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>37</t>
         </is>
       </c>
     </row>
@@ -1076,7 +1286,12 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>2024-09-14 00:00:00</t>
+          <t>14/09/24</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>40</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1306,12 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>2024-10-19 00:00:00</t>
+          <t>19/10/24</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>36</t>
         </is>
       </c>
     </row>
@@ -1106,7 +1326,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>2024-11-09 00:00:00</t>
+          <t>09/11/24</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>43</t>
         </is>
       </c>
     </row>
@@ -1121,7 +1346,12 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>2024-12-21 00:00:00</t>
+          <t>21/12/24</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>l33</t>
         </is>
       </c>
     </row>
@@ -1136,7 +1366,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>2025-01-11 00:00:00</t>
+          <t>11/01/25</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>53</t>
         </is>
       </c>
     </row>
@@ -1151,7 +1386,12 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>2025-02-08 00:00:00</t>
+          <t>08/02/25</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>53</t>
         </is>
       </c>
     </row>
@@ -1166,7 +1406,12 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>2025-03-08 00:00:00</t>
+          <t>08/03/25</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>38</t>
         </is>
       </c>
     </row>
@@ -1181,7 +1426,12 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>2025-04-12 00:00:00</t>
+          <t>12/04/25</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>49</t>
         </is>
       </c>
     </row>
